--- a/data/results-eos.xlsx
+++ b/data/results-eos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Quantum Result</t>
   </si>
@@ -40,112 +40,58 @@
     <t>Gurobi Optimizer Result</t>
   </si>
   <si>
-    <t>[36, 39, 48, 62, 163, 164, 208, 250, 333, 348, 386, 393, 414, 428, 452, 453, 525, 585, 615, 654, 662, 664, 670, 676, 682, 694, 707, 715, 721, 725, 732, 773, 789, 798, 799, 805, 807, 816, 839, 873, 875, 890, 896, 908, 913, 915, 921, 943, 952, 992, 1014, 1052, 1053, 1059, 1092, 1115]</t>
-  </si>
-  <si>
-    <t>41452</t>
-  </si>
-  <si>
-    <t>25051.41520500183 ms</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>[91, 92, 93, 615, 617, 623, 676, 684, 687, 700, 707, 710, 728, 835, 836, 987, 989, 990, 991, 997]</t>
   </si>
   <si>
-    <t>11332</t>
-  </si>
-  <si>
-    <t>1132.739782333374 ms</t>
+    <t>[93, 697, 310, 771, 735, 212, 755, 775, 168, 463, 999, 512, 711, 115, 743, 524, 803, 280, 152, 231]</t>
+  </si>
+  <si>
+    <t>746.3033199310303 ms</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
-    <t>['Storage limit not satisfied', 'Storage limit not satisfied', 'Energy limit not satisfied']</t>
-  </si>
-  <si>
-    <t>[0, 17, 22, 25, 26, 33, 35, 40, 55, 58, 61, 69, 70, 80, 85, 92, 96, 115, 171, 183, 230, 242, 249, 293, 302, 306, 333, 383, 390, 405, 418, 431, 448, 463, 473, 485, 518, 534, 546, 548, 561, 566, 588, 601, 613, 615, 650, 652, 657, 661, 666, 685, 694, 708]</t>
-  </si>
-  <si>
-    <t>35431</t>
-  </si>
-  <si>
-    <t>25547.550678253174 ms</t>
+    <t>['Storage limit not satisfied', 'Energy limit not satisfied']</t>
   </si>
   <si>
     <t>[25, 26, 46, 58, 59, 61, 71, 72, 74, 75, 76, 79, 80, 86, 90, 91, 92, 93, 94, 98, 146, 156, 180, 183, 190, 196, 204, 208, 219, 225, 242, 293, 362, 410, 418, 435, 439, 440, 443, 489, 493, 500, 509, 516, 526, 534, 542, 544, 547, 603, 613, 661, 666, 679, 685, 723, 724, 726, 727, 730]</t>
   </si>
   <si>
-    <t>29564</t>
-  </si>
-  <si>
-    <t>1416.2611961364746 ms</t>
-  </si>
-  <si>
-    <t>[1, 4, 8, 19, 53, 58, 82, 83, 88, 128, 158, 196, 216, 221, 225, 227, 228, 229, 247, 268, 269, 282, 288, 309, 318, 323, 336, 343, 358, 440, 452, 461, 490, 491, 494, 508, 512, 517, 524, 531, 534, 538, 543, 547, 550, 552, 554, 565, 568, 569, 570, 579, 582, 587, 588, 589, 590, 593]</t>
-  </si>
-  <si>
-    <t>36952</t>
-  </si>
-  <si>
-    <t>32214.33687210083 ms</t>
+    <t>[149, 758, 832, 717, 191, 835, 386, 805, 271, 904, 295, 954, 496, 688, 66, 42, 398, 925, 645, 477, 674, 849, 496, 599, 289, 680, 904, 445, 359, 161, 417, 318, 653, 645, 501, 805, 587, 380, 415, 93, 459, 542, 763, 541, 946, 9, 576, 949, 315, 846, 986, 504, 209, 588, 653, 948, 599, 587, 707, 558]</t>
+  </si>
+  <si>
+    <t>673.9494800567627 ms</t>
   </si>
   <si>
     <t>[8, 9, 12, 13, 23, 36, 53, 58, 62, 63, 69, 71, 76, 78, 81, 82, 83, 85, 88, 89, 93, 94, 98, 99, 111, 127, 128, 141, 158, 196, 216, 221, 225, 240, 242, 245, 253, 255, 264, 266, 269, 278, 301, 306, 358, 457, 464, 466, 474, 477, 478, 506, 513, 517, 518, 522, 524, 527, 529, 534, 537, 538, 542, 547, 551, 552, 554, 560, 562, 565, 567, 568, 569, 572, 574, 582, 584, 586, 587, 588, 589]</t>
   </si>
   <si>
-    <t>40485</t>
-  </si>
-  <si>
-    <t>2191.789388656616 ms</t>
-  </si>
-  <si>
-    <t>['Storage limit not satisfied', 'Energy limit not satisfied']</t>
-  </si>
-  <si>
-    <t>[1, 4, 17, 39, 51, 52, 53, 55, 72, 82, 86, 93, 107, 117, 130, 131, 137, 145, 146]</t>
-  </si>
-  <si>
-    <t>13137</t>
-  </si>
-  <si>
-    <t>27746.978521347046 ms</t>
+    <t>[529, 884, 367, 5, 504, 147, 499, 585, 77, 103, 819, 600, 703, 859, 37, 692, 124, 330, 450, 935, 159, 426, 697, 785, 896, 255, 586, 717, 59, 324, 922, 442, 12, 620, 873, 268, 35, 512, 368, 636, 227, 89, 607, 904, 416, 794, 877, 835, 808, 966, 117, 241, 698, 373, 367, 228, 896, 860, 359, 717, 456, 488, 976, 572, 935, 476, 105, 598, 247, 576, 458, 426, 80, 611, 248, 596, 63, 908, 550, 27, 744]</t>
+  </si>
+  <si>
+    <t>1077.8427124023438 ms</t>
   </si>
   <si>
     <t>[8, 51, 52, 54, 98, 99, 143, 146]</t>
   </si>
   <si>
-    <t>4331</t>
-  </si>
-  <si>
-    <t>83.465576171875 ms</t>
+    <t>[836, 172, 497, 13, 647, 358, 537, 146]</t>
+  </si>
+  <si>
+    <t>33.283233642578125 ms</t>
   </si>
   <si>
     <t>['Storage limit not satisfied']</t>
   </si>
   <si>
-    <t>[4, 5, 10, 11, 12, 14, 20, 21, 30, 47, 51, 55, 60, 73, 127, 201, 208, 262, 306, 340, 341, 344, 401, 415, 460, 463, 475, 531, 635, 663, 673, 707, 708, 748, 767, 781, 794, 799, 817, 856, 881, 886, 896, 918, 921, 925, 930, 953, 960, 962, 963, 964, 999, 1031, 1043]</t>
-  </si>
-  <si>
-    <t>36172</t>
-  </si>
-  <si>
-    <t>25157.77087211609 ms</t>
-  </si>
-  <si>
     <t>[7, 8, 9, 10, 14, 76, 95, 99, 127, 135, 136, 172, 179, 201, 262, 341, 475, 756, 759, 762, 817, 861, 975, 984, 987, 991, 993, 996]</t>
   </si>
   <si>
-    <t>14328</t>
-  </si>
-  <si>
-    <t>1239.0565872192383 ms</t>
+    <t>[124, 151, 531, 711, 830, 21, 720, 458, 3, 704, 611, 589, 391, 592, 964, 806, 533, 552, 790, 212, 46, 592, 276, 739, 900, 999, 336, 991]</t>
+  </si>
+  <si>
+    <t>1020.7138061523438 ms</t>
   </si>
 </sst>
 </file>
@@ -531,163 +477,103 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>11332</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>29564</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>40485</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>4331</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>14328</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
